--- a/docs/Tablas TFM MIA.xlsx
+++ b/docs/Tablas TFM MIA.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ly-Ax\VIU-MIA-TFM\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA118752-2826-4D6F-923D-1B9ACF304EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FA7F97-32DD-4DA5-87F2-9F6ABCB446BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{FCC921E9-24FE-4F99-9C25-EACDFFA3B1E2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="8" xr2:uid="{FCC921E9-24FE-4F99-9C25-EACDFFA3B1E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Features" sheetId="4" r:id="rId2"/>
-    <sheet name="Outliers" sheetId="5" r:id="rId3"/>
-    <sheet name="PrePro" sheetId="6" r:id="rId4"/>
+    <sheet name="EDA" sheetId="7" r:id="rId2"/>
+    <sheet name="Target" sheetId="8" r:id="rId3"/>
+    <sheet name="Features" sheetId="4" r:id="rId4"/>
+    <sheet name="Outliers" sheetId="5" r:id="rId5"/>
+    <sheet name="FSel" sheetId="9" r:id="rId6"/>
+    <sheet name="PrePro" sheetId="6" r:id="rId7"/>
+    <sheet name="Params" sheetId="10" r:id="rId8"/>
+    <sheet name="Metricas" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="209">
   <si>
     <t>Discreta</t>
   </si>
@@ -507,16 +512,177 @@
   </si>
   <si>
     <t>Rural</t>
+  </si>
+  <si>
+    <t>Nulos</t>
+  </si>
+  <si>
+    <t>Distintos</t>
+  </si>
+  <si>
+    <t>Distintos (%)</t>
+  </si>
+  <si>
+    <t>FechaMora</t>
+  </si>
+  <si>
+    <t>Impago</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>No Nula</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Nula</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Moda</t>
+  </si>
+  <si>
+    <t>Moda (%)</t>
+  </si>
+  <si>
+    <t>Minimo</t>
+  </si>
+  <si>
+    <t>Maximo</t>
+  </si>
+  <si>
+    <t>MoraCero</t>
+  </si>
+  <si>
+    <t>Valores Nulos</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>Umbral de Varianza</t>
+  </si>
+  <si>
+    <t>Analisis de Informacion Mutua</t>
+  </si>
+  <si>
+    <t>Hiperparametro</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>Inversa de la fuerza de regularización</t>
+  </si>
+  <si>
+    <t>Especifica la norma de la penalización</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1-score</t>
+  </si>
+  <si>
+    <t>K-Nearest Neighbors</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>n_neighbors</t>
+  </si>
+  <si>
+    <t>weights</t>
+  </si>
+  <si>
+    <t>manhattan</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>Métrica que se utilizará para calcular la distancia</t>
+  </si>
+  <si>
+    <t>Número de vecinos que se utilizarán</t>
+  </si>
+  <si>
+    <t>Función de peso utilizada en la predicción</t>
+  </si>
+  <si>
+    <t>criterion</t>
+  </si>
+  <si>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>entropy</t>
+  </si>
+  <si>
+    <t>La función para medir la calidad de una división</t>
+  </si>
+  <si>
+    <t>La profundidad máxima del árbol</t>
+  </si>
+  <si>
+    <t>Decision Tree Classifier</t>
+  </si>
+  <si>
+    <t>Random Forest Classifier</t>
+  </si>
+  <si>
+    <t>learning_rate</t>
+  </si>
+  <si>
+    <t>Reduce la contribución de cada árbol</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>AUC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +706,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Var(--colab-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -555,7 +733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -615,11 +793,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,31 +823,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,7 +1197,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.54296875" customWidth="1"/>
@@ -1000,7 +1213,7 @@
     <col min="15" max="15" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15">
       <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
@@ -1016,19 +1229,19 @@
       <c r="G2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="2:15">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1100,7 +1313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15">
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -1134,7 +1347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15">
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1168,7 +1381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15">
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15">
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1232,7 +1445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15">
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
@@ -1258,7 +1471,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15">
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1284,7 +1497,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15">
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1310,7 +1523,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15">
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
@@ -1336,7 +1549,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15">
       <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1353,7 +1566,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15">
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
@@ -1370,7 +1583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1387,7 +1600,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15">
       <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1404,7 +1617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7">
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1421,7 +1634,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7">
       <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
@@ -1438,7 +1651,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7">
       <c r="B19" s="6" t="s">
         <v>23</v>
       </c>
@@ -1455,7 +1668,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7">
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
@@ -1472,7 +1685,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7">
       <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1489,7 +1702,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7">
       <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
@@ -1506,7 +1719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7">
       <c r="B23" s="6" t="s">
         <v>27</v>
       </c>
@@ -1517,7 +1730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7">
       <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
@@ -1528,7 +1741,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7">
       <c r="B25" s="6" t="s">
         <v>29</v>
       </c>
@@ -1539,7 +1752,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7">
       <c r="B26" s="6" t="s">
         <v>33</v>
       </c>
@@ -1550,7 +1763,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7">
       <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
@@ -1561,7 +1774,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7">
       <c r="B28" s="6" t="s">
         <v>31</v>
       </c>
@@ -1572,7 +1785,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7">
       <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
@@ -1593,12 +1806,590 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC01AC0D-C65E-4C98-B63F-A765EA608CE2}">
+  <dimension ref="B2:Y11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25">
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>899164</v>
+      </c>
+      <c r="E3" s="6">
+        <v>100</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>33611</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="15">
+        <v>110.8</v>
+      </c>
+      <c r="N3" s="15">
+        <v>84</v>
+      </c>
+      <c r="O3" s="6">
+        <v>84</v>
+      </c>
+      <c r="P3" s="15">
+        <v>25.6</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <v>569</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="15">
+        <v>201154</v>
+      </c>
+      <c r="V3" s="15">
+        <v>100000</v>
+      </c>
+      <c r="W3" s="6">
+        <v>50000</v>
+      </c>
+      <c r="X3" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>11446325</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6">
+        <v>779583</v>
+      </c>
+      <c r="E4" s="6">
+        <v>86.7</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2768</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="15">
+        <v>11.4</v>
+      </c>
+      <c r="N4" s="15">
+        <v>4</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="15">
+        <v>17.2</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>9999</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="15">
+        <v>3</v>
+      </c>
+      <c r="V4" s="15">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>996262</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6">
+        <v>32581</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1312</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="15">
+        <v>8.4</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>8800</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="15">
+        <v>192687</v>
+      </c>
+      <c r="V5" s="15">
+        <v>90000</v>
+      </c>
+      <c r="W5" s="6">
+        <v>50000</v>
+      </c>
+      <c r="X5" s="16">
+        <v>200</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>5472000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25">
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1559</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5802</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="6">
+        <v>136</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="15">
+        <v>10.8</v>
+      </c>
+      <c r="N6" s="15">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>9500</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="15">
+        <v>149488.79999999999</v>
+      </c>
+      <c r="V6" s="15">
+        <v>61250</v>
+      </c>
+      <c r="W6" s="6">
+        <v>25000</v>
+      </c>
+      <c r="X6" s="16">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>5472000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25">
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>3</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25">
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1566</v>
+      </c>
+      <c r="D8" s="6">
+        <v>56</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25">
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4528</v>
+      </c>
+      <c r="D9" s="6">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25">
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2582</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25">
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1997</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED2AFD1-C769-42CA-8AB6-CFEAC0800C98}">
+  <dimension ref="B2:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="10.90625" style="14"/>
+    <col min="7" max="8" width="10.90625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4927</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3.03</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="6">
+        <v>4884</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="6">
+        <v>157772</v>
+      </c>
+      <c r="E4" s="6">
+        <v>96.97</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="6">
+        <v>157128</v>
+      </c>
+      <c r="J4" s="6">
+        <v>96.99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="6">
+        <v>734682</v>
+      </c>
+      <c r="E5" s="6">
+        <v>99.76</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="6">
+        <v>734725</v>
+      </c>
+      <c r="J5" s="6">
+        <v>99.67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1783</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2427</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F938815-C643-4BB1-9EF7-256B69994486}">
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="16.453125" customWidth="1"/>
     <col min="3" max="3" width="36.08984375" bestFit="1" customWidth="1"/>
@@ -1609,7 +2400,7 @@
     <col min="10" max="10" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
@@ -1632,378 +2423,378 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:10">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:10">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="10">
         <v>1564</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:10">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="10">
         <v>1169</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:10">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="10">
         <v>4568</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="2:10">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="10">
         <v>4514</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="2:10">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="10">
         <v>1956</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="2:10">
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="2:10">
+      <c r="B10" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="2:10">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="2:10">
+      <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="2:10">
+      <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F14" s="11" t="s">
+    <row r="14" spans="2:10">
+      <c r="F14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F15" s="11" t="s">
+    <row r="15" spans="2:10">
+      <c r="F15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F16" s="11" t="s">
+    <row r="16" spans="2:10">
+      <c r="F16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F17" s="11" t="s">
+    <row r="17" spans="6:7">
+      <c r="F17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F18" s="11" t="s">
+    <row r="18" spans="6:7">
+      <c r="F18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F19" s="11" t="s">
+    <row r="19" spans="6:7">
+      <c r="F19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F20" s="11" t="s">
+    <row r="20" spans="6:7">
+      <c r="F20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F21" s="11" t="s">
+    <row r="21" spans="6:7">
+      <c r="F21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F22" s="11" t="s">
+    <row r="22" spans="6:7">
+      <c r="F22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F23" s="11" t="s">
+    <row r="23" spans="6:7">
+      <c r="F23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F24" s="11" t="s">
+    <row r="24" spans="6:7">
+      <c r="F24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F25" s="11" t="s">
+    <row r="25" spans="6:7">
+      <c r="F25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F26" s="11" t="s">
+    <row r="26" spans="6:7">
+      <c r="F26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F27" s="11" t="s">
+    <row r="27" spans="6:7">
+      <c r="F27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F28" s="11" t="s">
+    <row r="28" spans="6:7">
+      <c r="F28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F29" s="11" t="s">
+    <row r="29" spans="6:7">
+      <c r="F29" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F30" s="11" t="s">
+    <row r="30" spans="6:7">
+      <c r="F30" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F31" s="11" t="s">
+    <row r="31" spans="6:7">
+      <c r="F31" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F32" s="11" t="s">
+    <row r="32" spans="6:7">
+      <c r="F32" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="8" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2012,13 +2803,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A64B17E-D5E7-41AC-84FA-9EEFF0B4F0BA}">
   <dimension ref="B2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="17.54296875" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" customWidth="1"/>
@@ -2030,7 +2821,7 @@
     <col min="12" max="12" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12">
       <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
@@ -2062,227 +2853,227 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:12">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="11">
         <v>110.9</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="11">
         <v>78.900000000000006</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>347.6</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <v>183</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="11">
         <v>60</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <v>-210</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="11">
         <v>390</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:12">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>11.4</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>73.8</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>232.8</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="12">
         <v>1449</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <v>8</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="11">
         <v>-34</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="11">
         <v>46</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="12">
         <v>33305</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:12">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>8.4</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <v>236.8</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>718.9</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <v>676</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <v>5</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="11">
         <v>-20.5</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="11">
         <v>29.5</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="12">
         <v>9890</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:12">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>10.8</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>237.3</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>722.6</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <v>674</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <v>7</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="11">
         <v>-29.5</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="11">
         <v>40.5</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="12">
         <v>14837</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="2:12">
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>201627.2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>287822.90000000002</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>1065095.8</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>19260</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="11">
         <v>196500</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="11">
         <v>-841750</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="11">
         <v>1123250</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="12">
         <v>17023</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="2:12">
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>193085</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <v>283448.40000000002</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>1043430.2</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <v>19605</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="11">
         <v>190000</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="11">
         <v>-820000</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="11">
         <v>1080000</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="12">
         <v>18227</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="2:12">
+      <c r="B9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>149800.1</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>228571.8</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>835515.6</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <v>18049</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="11">
         <v>153750</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="11">
         <v>-670625</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="11">
         <v>866875</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="12">
         <v>16952</v>
       </c>
     </row>
@@ -2291,146 +3082,1091 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7859A920-FE62-4A19-84CC-549F87747465}">
-  <dimension ref="B2:F11"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDC7C87-F3CC-4C16-8AC5-B7EDD2700569}">
+  <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="3.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="E2" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="18">
+        <v>5.3000000000000001E-5</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="18">
+        <v>6.3000000000000003E-4</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="18">
+        <v>4.35E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="18">
+        <v>7.3099999999999999E-4</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18">
+        <v>7.8100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1.8129999999999999E-3</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="18">
+        <v>5.8970000000000003E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1.5805E-2</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1.2070000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1.8853999999999999E-2</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1.2234E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1.8915000000000001E-2</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1.2640999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="18">
+        <v>2.1342E-2</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1.2841E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="18">
+        <v>3.3312000000000001E-2</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="18">
+        <v>2.4160000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="18">
+        <v>8.2241999999999996E-2</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="18">
+        <v>2.4875999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C13" s="18">
+        <v>9.1349E-2</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="18">
+        <v>3.7942999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="18">
+        <v>9.3385999999999997E-2</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="18">
+        <v>4.0770000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.10324999999999999</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="18">
+        <v>4.4607000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.108726</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="18">
+        <v>4.5927000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.11276700000000001</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="18">
+        <v>6.9917999999999994E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.13778199999999999</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="18">
+        <v>7.8503000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.18373400000000001</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="18">
+        <v>7.9083000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.20258000000000001</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="18">
+        <v>8.9925000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.24922</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F21" s="18">
+        <v>9.2589000000000005E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.24950900000000001</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6"/>
+      <c r="F22" s="18">
+        <v>0.15574299999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7859A920-FE62-4A19-84CC-549F87747465}">
+  <dimension ref="B2:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49915ED7-D7B7-4C8C-B1D9-504260E8F1AC}">
+  <dimension ref="B2:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="7">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="7">
+        <v>20</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="7">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB31ED5-4D6D-41B4-AAF3-BB9FE293C4BE}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="10">
+        <v>0.86119999999999997</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.73180000000000001</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="10">
+        <v>0.88959999999999995</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.7329</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.77370000000000005</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="10">
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="10">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.89870000000000005</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="10">
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.93110000000000004</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.91849999999999998</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B14:F14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>